--- a/sweetest/element/InterUT-Elements.xlsx
+++ b/sweetest/element/InterUT-Elements.xlsx
@@ -157,7 +157,7 @@
     <t xml:space="preserve">优投平台链接</t>
   </si>
   <si>
-    <t xml:space="preserve">https://intl-youcloud-test.umlife.com/login/youtou/</t>
+    <t xml:space="preserve">https://intl.youcloud.com/login/youtou/</t>
   </si>
   <si>
     <t xml:space="preserve">优投平台登录页</t>
@@ -937,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,7 +1254,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -2364,7 +2364,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" display="https://intl-youcloud-test.umlife.com/login/youtou/"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://intl.youcloud.com/login/youtou/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
